--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1970606.122276253</v>
+        <v>1914828.600133647</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619107.6329734231</v>
+        <v>477658.7701963686</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.2720521</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6380778.842947281</v>
+        <v>6380778.84294728</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>190.1066023865956</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>183.4693513325732</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.63502845560132</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>206.6856389338103</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.1652245444287</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>33.60023339142367</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>124.2504782247723</v>
+        <v>154.9931047012513</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>237.4035591931443</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21.78880197154309</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>2.366609375368838</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.1661542867778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>69.40192883124155</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>25.74755179003822</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>155.332358543586</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10.27077547947482</v>
       </c>
       <c r="U13" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>108.9502247286593</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.63092046684788</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>53.34253051055276</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>40.46506183810493</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>85.4178654864936</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>37.37177184885588</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>283.0884115724813</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>135.8774840836524</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>52.17825248444056</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>205.0990980457142</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>289.1943920452052</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>99.8781078481061</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>181.7638782208678</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.36175976093794</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>12.28626399456441</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>63.78513974917341</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>35.54483890212026</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>205.3531117266651</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>42.05930342856823</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>179.0654404381967</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>222.8752675352098</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>39.35575705081059</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,19 +2636,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>42.44802716127243</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>155.5783984036218</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>14.66929392497712</v>
       </c>
       <c r="V28" t="n">
-        <v>42.05930342856824</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>84.65566922272912</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>83.85219763151034</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -2927,13 +2927,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>55.49832101367409</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.4697023004216</v>
+        <v>12.35168551462424</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>71.11062913723913</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>248.8754041306029</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
@@ -3164,13 +3164,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>73.50960697132101</v>
+        <v>141.2209508291587</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.36175976093789</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>181.2878961210735</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3478580551055</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>32.90473339009649</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.086605888722</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.64439241526548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.05930342856824</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>251.8957866338729</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -3559,7 +3559,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>383.0198256725205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>131.8845533176906</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>76.56346227947924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>376.8808099557201</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.080986886107411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>18.58655811711431</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>232.3464264972929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>291.3404225272361</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>38.72569904243535</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>247.7518370021894</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>772.0302844130649</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>528.5815077689649</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>285.1327311248648</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="X2" t="n">
-        <v>285.1327311248648</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>525.1941863946997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.7568786610034</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>512.7568786610034</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>363.8224689997521</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>204.5850139942966</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>58.05045602118159</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.7568786610034</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>577.2332497330343</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>577.2332497330343</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>528.5815077689649</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9476827596951</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="V6" t="n">
-        <v>227.7955745279523</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>706.3289344460964</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.4769954460863</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>266.0282188019862</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>259.0827180527828</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
+        <v>243.9530410142718</v>
+      </c>
+      <c r="H8" t="n">
+        <v>243.9530410142718</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J8" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="H8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>752.9257720901863</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>365.4316055857233</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>190.9785763045963</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>42.04416664334499</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>687.0797669936162</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>458.8561487300053</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W9" t="n">
-        <v>533.6469426057913</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>533.6469426057913</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>533.6469426057913</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>580.3810541751592</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C11" t="n">
-        <v>580.3810541751592</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D11" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E11" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F11" t="n">
         <v>222.1153555684087</v>
@@ -5038,55 +5038,55 @@
         <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.96628798761</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="V11" t="n">
-        <v>1291.903400644039</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="W11" t="n">
-        <v>939.1347453739247</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="X11" t="n">
-        <v>939.1347453739247</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="Y11" t="n">
-        <v>939.1347453739247</v>
+        <v>1018.555167346573</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>258.3292603057339</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C12" t="n">
-        <v>258.3292603057339</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D12" t="n">
-        <v>258.3292603057339</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E12" t="n">
-        <v>258.3292603057339</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G12" t="n">
         <v>111.7947023326189</v>
@@ -5117,55 +5117,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278475</v>
+        <v>262.4224316281013</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321105</v>
+        <v>661.8405682323644</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1063.524724509298</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051269</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570043</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W12" t="n">
-        <v>791.2062683570043</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X12" t="n">
-        <v>634.3048960907558</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="Y12" t="n">
-        <v>426.5445973258019</v>
+        <v>905.3741555651432</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5229,22 +5229,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="U13" t="n">
-        <v>287.1438139656391</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>350.8720809166119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>528.2983104071473</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="C14" t="n">
-        <v>528.2983104071473</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="D14" t="n">
-        <v>528.2983104071473</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E14" t="n">
-        <v>142.510057808903</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F14" t="n">
-        <v>142.510057808903</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5305,25 +5305,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.066368324126</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.066368324126</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="V14" t="n">
-        <v>1291.903400644039</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.903400644039</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="X14" t="n">
-        <v>918.437642382959</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="Y14" t="n">
-        <v>528.2983104071473</v>
+        <v>968.7637269953007</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>596.9571915294509</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="C15" t="n">
-        <v>422.504162248324</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D15" t="n">
-        <v>422.504162248324</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E15" t="n">
-        <v>368.6228182982707</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0882603251556</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082811</v>
+        <v>988.3144730957142</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1311.327980270272</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1227.261385483253</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1227.261385483253</v>
+        <v>904.0870166530085</v>
       </c>
       <c r="W15" t="n">
-        <v>973.0240287550519</v>
+        <v>904.0870166530085</v>
       </c>
       <c r="X15" t="n">
-        <v>765.172528549519</v>
+        <v>904.0870166530085</v>
       </c>
       <c r="Y15" t="n">
-        <v>765.172528549519</v>
+        <v>904.0870166530085</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R16" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407.0169899663951</v>
+        <v>704.1954688352503</v>
       </c>
       <c r="C17" t="n">
-        <v>407.0169899663951</v>
+        <v>704.1954688352503</v>
       </c>
       <c r="D17" t="n">
-        <v>369.2677254726013</v>
+        <v>704.1954688352503</v>
       </c>
       <c r="E17" t="n">
-        <v>369.2677254726013</v>
+        <v>318.407216237006</v>
       </c>
       <c r="F17" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
         <v>32.45932575975218</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T17" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U17" t="n">
-        <v>1146.385485300631</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V17" t="n">
-        <v>1146.385485300631</v>
+        <v>1094.334800811062</v>
       </c>
       <c r="W17" t="n">
-        <v>793.6168300305169</v>
+        <v>1094.334800811062</v>
       </c>
       <c r="X17" t="n">
-        <v>793.6168300305169</v>
+        <v>1094.334800811062</v>
       </c>
       <c r="Y17" t="n">
-        <v>793.6168300305169</v>
+        <v>704.1954688352503</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>271.0321573380744</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="C18" t="n">
-        <v>271.0321573380744</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D18" t="n">
-        <v>271.0321573380744</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E18" t="n">
-        <v>111.7947023326189</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F18" t="n">
-        <v>111.7947023326189</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L18" t="n">
-        <v>286.0540656923024</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M18" t="n">
-        <v>606.3893852220042</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N18" t="n">
-        <v>1008.073541498937</v>
+        <v>1249.887157400388</v>
       </c>
       <c r="O18" t="n">
-        <v>1331.087048673495</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
         <v>1513.730526286846</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1318.214069022894</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1090.011401560372</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>854.8592933286292</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W18" t="n">
-        <v>854.8592933286292</v>
+        <v>892.2555109496392</v>
       </c>
       <c r="X18" t="n">
-        <v>647.0077931230963</v>
+        <v>684.4040107441064</v>
       </c>
       <c r="Y18" t="n">
-        <v>439.2474943581424</v>
+        <v>476.6437119791524</v>
       </c>
     </row>
     <row r="19">
@@ -5700,13 +5700,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V19" t="n">
         <v>32.45932575975218</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1035.258356178821</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="E20" t="n">
-        <v>442.299297473795</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="F20" t="n">
-        <v>442.299297473795</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>514.230903088818</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U20" t="n">
-        <v>1425.397688154633</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V20" t="n">
-        <v>1425.397688154633</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W20" t="n">
-        <v>1425.397688154633</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="X20" t="n">
-        <v>1425.397688154633</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="Y20" t="n">
-        <v>1035.258356178821</v>
+        <v>924.0708748028607</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.7993326652288</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C21" t="n">
-        <v>133.3463033841018</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>438.179716045193</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>758.5150355748948</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026704</v>
+        <v>1103.035691212513</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1374.066492846507</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="U21" t="n">
-        <v>1145.863825383985</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V21" t="n">
-        <v>1145.863825383985</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W21" t="n">
-        <v>891.6264686557836</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X21" t="n">
-        <v>683.7749684502508</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y21" t="n">
-        <v>476.0146696852968</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>287.1438139656391</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S22" t="n">
-        <v>287.1438139656391</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T22" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.4979177433164</v>
+        <v>864.9944301706196</v>
       </c>
       <c r="C23" t="n">
-        <v>840.4979177433164</v>
+        <v>864.9944301706196</v>
       </c>
       <c r="D23" t="n">
-        <v>828.0875500720392</v>
+        <v>506.7287315638691</v>
       </c>
       <c r="E23" t="n">
-        <v>442.299297473795</v>
+        <v>506.7287315638691</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>506.7287315638691</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>96.88875984982633</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>96.88875984982633</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521505</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T23" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U23" t="n">
-        <v>1171.560805086887</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V23" t="n">
-        <v>840.4979177433164</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="W23" t="n">
-        <v>840.4979177433164</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="X23" t="n">
-        <v>840.4979177433164</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="Y23" t="n">
-        <v>840.4979177433164</v>
+        <v>864.9944301706196</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>502.3813226752455</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="C24" t="n">
-        <v>327.9282933941185</v>
+        <v>523.0696260784833</v>
       </c>
       <c r="D24" t="n">
-        <v>178.9938837328672</v>
+        <v>374.1352164172321</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>214.8977614117766</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>68.36320343866154</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>172.6527292199797</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>470.3844842016429</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>869.8026208059058</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N24" t="n">
-        <v>1271.486777082839</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894784</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577356</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W24" t="n">
-        <v>502.3813226752455</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X24" t="n">
-        <v>502.3813226752455</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y24" t="n">
-        <v>502.3813226752455</v>
+        <v>697.5226553596103</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6168,31 +6168,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>74.94347063709384</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>74.94347063709384</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
-        <v>257.5858586236005</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6256,22 +6256,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>1057.565162313455</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V26" t="n">
-        <v>1057.565162313455</v>
+        <v>795.067952743909</v>
       </c>
       <c r="W26" t="n">
-        <v>1057.565162313455</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="X26" t="n">
-        <v>1057.565162313455</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="Y26" t="n">
-        <v>667.4258303376432</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>534.7360813672203</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C27" t="n">
-        <v>360.2830520860933</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2830520860933</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E27" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
         <v>32.45932575975218</v>
@@ -6308,49 +6308,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L27" t="n">
-        <v>262.4224316281013</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1465.816390610213</v>
       </c>
       <c r="T27" t="n">
-        <v>1374.066492846507</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="U27" t="n">
-        <v>1145.863825383985</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="V27" t="n">
-        <v>910.7117171522423</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W27" t="n">
-        <v>910.7117171522423</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X27" t="n">
-        <v>910.7117171522423</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y27" t="n">
-        <v>702.9514183872884</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F28" t="n">
         <v>32.45932575975218</v>
@@ -6405,31 +6405,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>296.5701361642185</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S28" t="n">
-        <v>74.94347063709384</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T28" t="n">
-        <v>74.94347063709384</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U28" t="n">
-        <v>74.94347063709384</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.45932575975218</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975218</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>117.9701027524079</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>117.9701027524079</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>117.9701027524079</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6502,13 +6502,13 @@
         <v>503.7583553506521</v>
       </c>
       <c r="W29" t="n">
-        <v>419.059165823874</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="X29" t="n">
-        <v>419.059165823874</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="Y29" t="n">
-        <v>419.059165823874</v>
+        <v>503.7583553506521</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>466.3406666349482</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>466.3406666349482</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6545,49 +6545,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>147.3709770270845</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>447.6306040484151</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>847.048740652678</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1117.104573837178</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V30" t="n">
-        <v>881.952465605435</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W30" t="n">
-        <v>881.952465605435</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X30" t="n">
-        <v>674.1009653999022</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y30" t="n">
-        <v>466.3406666349482</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G31" t="n">
         <v>32.45932575975218</v>
@@ -6642,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D32" t="n">
         <v>32.45932575975219</v>
@@ -6700,16 +6700,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.137369667166</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.137369667166</v>
       </c>
       <c r="T32" t="n">
-        <v>1400.222368368377</v>
+        <v>1328.393450047934</v>
       </c>
       <c r="U32" t="n">
-        <v>1400.222368368377</v>
+        <v>1074.556566980188</v>
       </c>
       <c r="V32" t="n">
-        <v>1148.833071266758</v>
+        <v>743.4936796366169</v>
       </c>
       <c r="W32" t="n">
-        <v>796.0644159966438</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="X32" t="n">
-        <v>422.5986577355639</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>515.0842197075859</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>340.6311904264589</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
         <v>32.45932575975219</v>
@@ -6782,49 +6782,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>772.7886475620825</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.050658039703</v>
+        <v>1117.3093031997</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.050658039703</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1098.911355698141</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>1098.911355698141</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>1098.911355698141</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>891.0598554926078</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>683.2995567276539</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6882,16 +6882,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>287.1438139656391</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S34" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T34" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U34" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V34" t="n">
         <v>32.45932575975219</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>787.2100952984081</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C35" t="n">
-        <v>418.2475783579964</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D35" t="n">
-        <v>418.2475783579964</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="U35" t="n">
-        <v>1369.129404919863</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V35" t="n">
-        <v>1038.066517576292</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W35" t="n">
-        <v>787.2100952984081</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X35" t="n">
-        <v>787.2100952984081</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y35" t="n">
-        <v>787.2100952984081</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>476.6437119791524</v>
+        <v>240.1494594753201</v>
       </c>
       <c r="C36" t="n">
-        <v>476.6437119791524</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="D36" t="n">
-        <v>476.6437119791524</v>
+        <v>65.69643019419308</v>
       </c>
       <c r="E36" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
         <v>32.45932575975218</v>
@@ -7016,16 +7016,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>826.2836846882088</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N36" t="n">
         <v>948.4732699082806</v>
@@ -7043,25 +7043,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U36" t="n">
-        <v>1173.163483952</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V36" t="n">
-        <v>938.7325689128868</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W36" t="n">
-        <v>684.4952121846852</v>
+        <v>823.9765954658749</v>
       </c>
       <c r="X36" t="n">
-        <v>476.6437119791524</v>
+        <v>616.1250952603421</v>
       </c>
       <c r="Y36" t="n">
-        <v>476.6437119791524</v>
+        <v>408.3647964953881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>66.44356052264661</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975218</v>
@@ -7116,31 +7116,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>74.94347063709384</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>74.94347063709384</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>442.2992974737949</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C38" t="n">
-        <v>442.2992974737949</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="D38" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E38" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U38" t="n">
-        <v>1202.653768535401</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V38" t="n">
-        <v>1202.653768535401</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W38" t="n">
-        <v>1202.653768535401</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X38" t="n">
-        <v>829.1880102743207</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y38" t="n">
-        <v>442.2992974737949</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>438.2218513866552</v>
+        <v>596.9571915294507</v>
       </c>
       <c r="C39" t="n">
-        <v>438.2218513866552</v>
+        <v>422.5041622483237</v>
       </c>
       <c r="D39" t="n">
         <v>289.2874417254039</v>
@@ -7256,49 +7256,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L39" t="n">
-        <v>505.948365158507</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M39" t="n">
-        <v>905.36650176277</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U39" t="n">
-        <v>1173.163483952</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V39" t="n">
-        <v>938.0113757202573</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="W39" t="n">
-        <v>683.7740189920557</v>
+        <v>973.0240287550516</v>
       </c>
       <c r="X39" t="n">
-        <v>683.7740189920557</v>
+        <v>765.1725285495188</v>
       </c>
       <c r="Y39" t="n">
-        <v>606.4371884067232</v>
+        <v>765.1725285495188</v>
       </c>
     </row>
     <row r="40">
@@ -7356,16 +7356,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T40" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V40" t="n">
         <v>32.45932575975218</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7441,22 +7441,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>793.6168300305169</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>420.151071769437</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>419.059165823874</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7493,19 +7493,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L42" t="n">
-        <v>236.9655055809357</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>636.3836421851986</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N42" t="n">
-        <v>1038.067798462132</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O42" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1355.292191718108</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1127.089524255587</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V42" t="n">
-        <v>891.937416023844</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W42" t="n">
-        <v>637.7000592956424</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X42" t="n">
-        <v>429.8485590901096</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y42" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975218</v>
@@ -7593,28 +7593,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>800.5649960805454</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C44" t="n">
-        <v>800.5649960805454</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>442.2992974737949</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
         <v>442.2992974737949</v>
@@ -7654,7 +7654,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941453</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y44" t="n">
-        <v>1035.258356178821</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>512.6843680194497</v>
+        <v>328.4043094450356</v>
       </c>
       <c r="C45" t="n">
-        <v>338.2313387383227</v>
+        <v>328.4043094450356</v>
       </c>
       <c r="D45" t="n">
-        <v>338.2313387383227</v>
+        <v>328.4043094450356</v>
       </c>
       <c r="E45" t="n">
-        <v>178.9938837328672</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7730,19 +7730,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>172.6527292199793</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L45" t="n">
-        <v>470.3844842016425</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M45" t="n">
-        <v>869.8026208059055</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N45" t="n">
-        <v>1271.486777082839</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>1374.066492846507</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>1138.914384614764</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W45" t="n">
-        <v>888.6600038044717</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X45" t="n">
-        <v>888.6600038044717</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8997050395178</v>
+        <v>496.6196464651036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D46" t="n">
-        <v>1333.769709747513</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>1333.769709747513</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>1333.769709747513</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K46" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L46" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M46" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N46" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O46" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y46" t="n">
-        <v>1333.769709747513</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,10 +8306,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5201795090609</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>364.9659080304755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>63.8487512925867</v>
+        <v>215.1275417125699</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>297.2182135325452</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>164.4140421034857</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>250.4116491320718</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>429.3731066525699</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10193,10 +10193,10 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>253.9138139918663</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304798</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>172.7696729881953</v>
+        <v>323.377224364657</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>92.88803957954771</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611509</v>
       </c>
       <c r="P42" t="n">
-        <v>288.1655393841852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>199.5028366479762</v>
+        <v>117.917222536309</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.56768737670274</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>181.8965854058268</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>140.7856318598291</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -23387,10 +23387,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>50.44062665989151</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23469,13 +23469,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>216.5454902098365</v>
       </c>
       <c r="U13" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>305.7632794018746</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>168.9619933677987</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>104.3025499448482</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>192.3355253113203</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>60.00318253643765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23676,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>317.3112697718271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>123.7876341692302</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23782,25 +23782,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>63.01649472190923</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>199.5167306764791</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>160.1737937252933</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>44.24592367051537</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>47.56695771653266</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>17.13010058469388</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>92.04730137591959</v>
+        <v>66.72592374140289</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>342.3967776261185</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>123.9743297613965</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>101.4834106063012</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>46.34187143425447</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>244.2453090291273</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>46.64421495084042</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>110.5650481805108</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>288.3965014193243</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,19 +24524,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1970532941285</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.24881428779398</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>271.6353185327184</v>
       </c>
       <c r="V28" t="n">
-        <v>210.0783398952598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>248.7846464929915</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>265.3887710859027</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4223197742225</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24894,7 +24894,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>24.8349101572739</v>
+        <v>273.9529269430712</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>41.74505720845832</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>78.87685433953197</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>152.4110338165756</v>
+        <v>84.69968995873785</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>92.04730137591964</v>
+        <v>59.32005692394502</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25134,7 +25134,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25204,25 +25204,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>39.22858430196635</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>100.8931106623075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>124.7403470653045</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7139812607032354</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>244.2453090291273</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>113.3771051371346</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25411,7 +25411,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.218112983533047</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>15.56051224694818</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>129.1192334978251</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,19 +25596,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>146.0486391109155</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.853031707760522</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25681,22 +25681,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>385.1569517699461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>84.69968995873801</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25724,10 +25724,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>180.3074206884473</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>40.58720832540965</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141476</v>
@@ -25833,13 +25833,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>66.72592374140289</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.3874151661877</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1.134473744809156</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>94.89751612881747</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>118.9193814129656</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>3.943146158730201</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>49.93233562275772</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.5318789201402</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26076,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448620.6838356737</v>
+        <v>448620.6838356739</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448620.683835674</v>
+        <v>448620.6838356738</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.6838356737</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448620.6838356737</v>
+        <v>448620.6838356738</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.6838356737</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448620.6838356739</v>
+        <v>448620.6838356738</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448620.6838356737</v>
+        <v>448620.6838356739</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.683835674</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.6838356739</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.6838356737</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="F2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="H2" t="n">
-        <v>299080.4558904493</v>
-      </c>
       <c r="I2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904494</v>
       </c>
       <c r="J2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="K2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="L2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="L2" t="n">
-        <v>299080.4558904494</v>
-      </c>
       <c r="M2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904491</v>
       </c>
       <c r="N2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="O2" t="n">
-        <v>299080.4558904494</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26426,7 +26426,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="F4" t="n">
         <v>305.9587030485383</v>
@@ -26447,7 +26447,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="L4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="M4" t="n">
         <v>305.9587030485383</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26524,46 +26524,46 @@
         <v>166553.4784775255</v>
       </c>
       <c r="C6" t="n">
-        <v>247322.9100090733</v>
+        <v>247322.910009073</v>
       </c>
       <c r="D6" t="n">
         <v>247322.9100090733</v>
       </c>
       <c r="E6" t="n">
-        <v>103969.9741483963</v>
+        <v>94125.37475501951</v>
       </c>
       <c r="F6" t="n">
-        <v>270910.1442736434</v>
+        <v>261065.5448802663</v>
       </c>
       <c r="G6" t="n">
-        <v>270910.1442736431</v>
+        <v>261065.5448802666</v>
       </c>
       <c r="H6" t="n">
-        <v>270910.1442736433</v>
+        <v>261065.5448802664</v>
       </c>
       <c r="I6" t="n">
-        <v>270910.1442736434</v>
+        <v>261065.5448802666</v>
       </c>
       <c r="J6" t="n">
-        <v>207850.2016745369</v>
+        <v>198005.6022811602</v>
       </c>
       <c r="K6" t="n">
-        <v>270910.1442736433</v>
+        <v>261065.5448802666</v>
       </c>
       <c r="L6" t="n">
-        <v>270910.1442736433</v>
+        <v>261065.5448802664</v>
       </c>
       <c r="M6" t="n">
-        <v>229859.4464111952</v>
+        <v>220014.8470178184</v>
       </c>
       <c r="N6" t="n">
-        <v>270910.1442736431</v>
+        <v>261065.5448802664</v>
       </c>
       <c r="O6" t="n">
-        <v>270910.1442736433</v>
+        <v>261065.5448802664</v>
       </c>
       <c r="P6" t="n">
-        <v>270910.1442736432</v>
+        <v>261065.5448802664</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27435,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>61.23905052124093</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>165.7716173848398</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>99.70848870760932</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>45.00934422710935</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27621,25 +27621,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>306.5178170762542</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>101.6909038562026</v>
+        <v>70.94827737972352</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5814812455281</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>305.8471464371412</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>177.8991783219907</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>135.8562784838579</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.7981193194528</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31776,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31794,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975594</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100591</v>
+        <v>69.1357577680219</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32013,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,40 +32071,40 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32183,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32314,7 +32314,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
@@ -32323,16 +32323,16 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>29.22569039103684</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
         <v>68.45318092253945</v>
@@ -32800,7 +32800,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N24" t="n">
-        <v>57.74090973668211</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O24" t="n">
         <v>75.01019504100589</v>
@@ -33025,10 +33025,10 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33037,16 +33037,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>75.01019504100589</v>
+        <v>70.24128376132143</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436761</v>
@@ -33268,19 +33268,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>60.45516400250136</v>
       </c>
       <c r="M30" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N30" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33502,22 +33502,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>65.32660237014341</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P33" t="n">
-        <v>24.27918245837645</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33745,10 +33745,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>75.01019504100589</v>
@@ -33973,28 +33973,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>70.24128376132143</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436761</v>
@@ -34222,13 +34222,13 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q42" t="n">
         <v>40.24363958326609</v>
@@ -34374,10 +34374,10 @@
         <v>74.95269614645902</v>
       </c>
       <c r="L44" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044646</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4642265438472</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N44" t="n">
         <v>105.1383858978454</v>
@@ -34459,7 +34459,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N45" t="n">
-        <v>57.74090973668206</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O45" t="n">
         <v>75.01019504100589</v>
@@ -34707,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,10 +35026,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>161.1784674257276</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>226.4115282506013</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>320.401832600307</v>
       </c>
       <c r="P12" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35582,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35658,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
@@ -35737,7 +35737,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>14.50290175900931</v>
+        <v>83.7858296292366</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>227.1170146752105</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>21.8177976590412</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>280.4917652233219</v>
       </c>
       <c r="P21" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>112.5702101577128</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
         <v>244.6906557616239</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>287.2390727305516</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>321.5073585936065</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>116.0723750175074</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>292.7411295260864</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366292</v>
+        <v>388.897632198125</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>208.7675436839834</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>123.4238234546179</v>
+        <v>192.0355122813237</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>43.54219004597032</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>321.5073585936065</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
@@ -37873,10 +37873,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P42" t="n">
-        <v>154.191131969855</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38022,10 +38022,10 @@
         <v>179.0082576726432</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209097</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094069</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38098,7 +38098,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>112.5702101577124</v>
+        <v>30.98459604604529</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38110,10 +38110,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1914828.600133647</v>
+        <v>1964721.376784646</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477658.7701963686</v>
+        <v>441629.597909201</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6380778.84294728</v>
+        <v>6380778.842947281</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>183.4693513325732</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>52.53577819376463</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>206.6856389338103</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>33.60023339142367</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>154.9931047012513</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>69.3421217705996</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.366609375368838</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>65.88553544856782</v>
       </c>
     </row>
     <row r="10">
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.83685490770591</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>69.40192883124155</v>
+        <v>105.4291797140166</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.74755179003822</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>119.315518300825</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>98.68313739545458</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>10.27077547947482</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>155.5012114700286</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>26.63092046684788</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>134.9522891448555</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>40.46506183810493</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>106.0890042129125</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>98.68313739545458</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>283.0884115724813</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>84.93904775296049</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1982,10 +1982,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>52.17825248444056</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>289.1943920452052</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>47.61838950314587</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.52385786288581</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>181.7638782208678</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>31.56348238011595</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>92.35335504220144</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>63.78513974917341</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0.4621095523141873</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35.54483890212026</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="X25" t="n">
-        <v>179.0654404381967</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>400.6920118803606</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>39.35575705081059</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>155.5783984036218</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>31.46288204362229</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.66929392497712</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>319.3912225700337</v>
       </c>
       <c r="H29" t="n">
-        <v>84.65566922272912</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.4289408551649</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>141.2209508291585</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="U31" t="n">
-        <v>12.35168551462424</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>71.11062913723913</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>56.06257007945297</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>141.2209508291587</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>121.0732952447395</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>12.35168551462424</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>181.2878961210735</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>34.46500819446488</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>32.90473339009649</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>9.926555387335604</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.64439241526548</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>251.8957866338729</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.6920118803607</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>131.8845533176906</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>166.2893222437302</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>30.44996741998435</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.8808099557201</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>183.6796284498938</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>88.00880902957773</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.895657159194378</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>153.7313042639881</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>291.3404225272361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>38.72569904243535</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.87712803026138</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.7454097505996</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="C2" t="n">
-        <v>281.7454097505996</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="D2" t="n">
-        <v>281.7454097505996</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7454097505996</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="F2" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="G2" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W2" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V2" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="W2" t="n">
-        <v>525.1941863946997</v>
-      </c>
       <c r="X2" t="n">
-        <v>525.1941863946997</v>
+        <v>525.1941863946996</v>
       </c>
       <c r="Y2" t="n">
-        <v>525.1941863946997</v>
+        <v>525.1941863946996</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C3" t="n">
         <v>223.7040404982626</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>809.8211834435576</v>
       </c>
       <c r="V3" t="n">
-        <v>432.4774131586771</v>
+        <v>809.8211834435576</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>566.3724067994576</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>566.3724067994576</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>65.29076204560282</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.3289344460964</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C6" t="n">
-        <v>531.8759051649694</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4658,13 +4658,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>706.3289344460964</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>706.3289344460964</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>706.3289344460964</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X6" t="n">
-        <v>706.3289344460964</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y6" t="n">
-        <v>706.3289344460964</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
         <v>266.3558523848238</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>729.290772582924</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>554.837743301797</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>656.0584510084244</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>687.0797669936162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>458.8561487300053</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.7040404982626</v>
+        <v>897.506109602992</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>631.9553272824514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C11" t="n">
-        <v>631.9553272824514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D11" t="n">
-        <v>631.9553272824514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E11" t="n">
-        <v>631.9553272824514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F11" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5071,22 +5071,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>1018.555167346573</v>
+        <v>1204.907924457952</v>
       </c>
       <c r="V11" t="n">
-        <v>1018.555167346573</v>
+        <v>1204.907924457952</v>
       </c>
       <c r="W11" t="n">
-        <v>1018.555167346573</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X11" t="n">
-        <v>1018.555167346573</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y11" t="n">
-        <v>1018.555167346573</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>879.3665274943975</v>
+        <v>517.0620151626715</v>
       </c>
       <c r="C12" t="n">
-        <v>704.9134982132705</v>
+        <v>342.6089858815445</v>
       </c>
       <c r="D12" t="n">
-        <v>555.9790885520192</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E12" t="n">
-        <v>396.7416335465637</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5120,25 +5120,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="L12" t="n">
-        <v>262.4224316281013</v>
+        <v>291.1713270321932</v>
       </c>
       <c r="M12" t="n">
-        <v>661.8405682323644</v>
+        <v>690.5894636364561</v>
       </c>
       <c r="N12" t="n">
-        <v>1063.524724509298</v>
+        <v>1092.273619913389</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1415.287127087948</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1597.930604701298</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5150,22 +5150,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.763620525087</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="V12" t="n">
-        <v>1159.611512293345</v>
+        <v>1186.91117086136</v>
       </c>
       <c r="W12" t="n">
-        <v>905.3741555651432</v>
+        <v>932.6738141331582</v>
       </c>
       <c r="X12" t="n">
-        <v>905.3741555651432</v>
+        <v>724.8223139276254</v>
       </c>
       <c r="Y12" t="n">
-        <v>905.3741555651432</v>
+        <v>517.0620151626715</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="C13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="D13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="E13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="F13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="G13" t="n">
-        <v>181.4512025860964</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="H13" t="n">
-        <v>181.4512025860964</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5208,43 +5208,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M13" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N13" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O13" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="U13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="V13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="W13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="X13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="Y13" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>968.7637269953007</v>
+        <v>547.7969551443093</v>
       </c>
       <c r="C14" t="n">
-        <v>968.7637269953007</v>
+        <v>547.7969551443093</v>
       </c>
       <c r="D14" t="n">
-        <v>968.7637269953007</v>
+        <v>189.5312565375588</v>
       </c>
       <c r="E14" t="n">
-        <v>968.7637269953007</v>
+        <v>189.5312565375588</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953007</v>
+        <v>189.5312565375588</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528324</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1596.066368324126</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1596.066368324126</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.22948525638</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V14" t="n">
-        <v>1342.22948525638</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W14" t="n">
-        <v>1342.22948525638</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X14" t="n">
-        <v>968.7637269953007</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="Y14" t="n">
-        <v>968.7637269953007</v>
+        <v>547.7969551443093</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>735.8716796329404</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="C15" t="n">
-        <v>735.8716796329404</v>
+        <v>315.3093273135294</v>
       </c>
       <c r="D15" t="n">
-        <v>586.9372699716891</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E15" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
         <v>32.45932575975218</v>
@@ -5369,40 +5369,40 @@
         <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>988.3144730957142</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1311.327980270272</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894781</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V15" t="n">
-        <v>904.0870166530085</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W15" t="n">
-        <v>904.0870166530085</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X15" t="n">
-        <v>904.0870166530085</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y15" t="n">
-        <v>904.0870166530085</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="16">
@@ -5463,22 +5463,22 @@
         <v>361.24660160295</v>
       </c>
       <c r="S16" t="n">
-        <v>139.6199360758254</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="Y16" t="n">
         <v>32.45932575975218</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>704.1954688352503</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C17" t="n">
-        <v>704.1954688352503</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D17" t="n">
-        <v>704.1954688352503</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E17" t="n">
-        <v>318.407216237006</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G17" t="n">
         <v>32.45932575975218</v>
@@ -5521,7 +5521,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941454</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1425.397688154633</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="U17" t="n">
-        <v>1425.397688154633</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="V17" t="n">
-        <v>1094.334800811062</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="W17" t="n">
-        <v>1094.334800811062</v>
+        <v>1225.605027448918</v>
       </c>
       <c r="X17" t="n">
-        <v>1094.334800811062</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y17" t="n">
-        <v>704.1954688352503</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>476.6437119791524</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C18" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D18" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
         <v>32.45932575975218</v>
@@ -5597,19 +5597,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>187.5145535538642</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>417.4776594222134</v>
       </c>
       <c r="M18" t="n">
-        <v>905.36650176277</v>
+        <v>737.8129789519152</v>
       </c>
       <c r="N18" t="n">
-        <v>1249.887157400388</v>
+        <v>1082.333634589533</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1331.087048673495</v>
       </c>
       <c r="P18" t="n">
         <v>1513.730526286846</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V18" t="n">
-        <v>944.9608164894781</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W18" t="n">
-        <v>892.2555109496392</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X18" t="n">
-        <v>684.4040107441064</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y18" t="n">
-        <v>476.6437119791524</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="I19" t="n">
         <v>32.45932575975218</v>
@@ -5682,43 +5682,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T19" t="n">
-        <v>132.1392625228377</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U19" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285355</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>924.0708748028607</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C20" t="n">
-        <v>924.0708748028607</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D20" t="n">
-        <v>924.0708748028607</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E20" t="n">
-        <v>924.0708748028607</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>924.0708748028607</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>514.230903088818</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1255.133762146431</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>924.0708748028607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>924.0708748028607</v>
+        <v>1574.866904651098</v>
       </c>
       <c r="X20" t="n">
-        <v>924.0708748028607</v>
+        <v>1201.401146390018</v>
       </c>
       <c r="Y20" t="n">
-        <v>924.0708748028607</v>
+        <v>811.2618144142066</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.1498100463347</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="C21" t="n">
-        <v>191.6967807652077</v>
+        <v>482.0213311429137</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>333.0869214816624</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>333.0869214816624</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>186.5523635085474</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>48.13999026771765</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>48.13999026771765</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>438.179716045193</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>758.5150355748948</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1103.035691212513</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1439.366410996834</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U21" t="n">
-        <v>1439.366410996834</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V21" t="n">
-        <v>1204.214302765091</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W21" t="n">
-        <v>949.9769460368893</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X21" t="n">
-        <v>742.1254458313565</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="Y21" t="n">
-        <v>534.3651470664026</v>
+        <v>656.4743604240407</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>213.333508020557</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I22" t="n">
         <v>32.45932575975218</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>864.9944301706196</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="C23" t="n">
-        <v>864.9944301706196</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="D23" t="n">
-        <v>506.7287315638691</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E23" t="n">
-        <v>506.7287315638691</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F23" t="n">
-        <v>506.7287315638691</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G23" t="n">
-        <v>96.88875984982633</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>96.88875984982633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U23" t="n">
-        <v>1255.133762146431</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V23" t="n">
-        <v>1255.133762146431</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W23" t="n">
-        <v>1255.133762146431</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X23" t="n">
-        <v>1255.133762146431</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y23" t="n">
-        <v>864.9944301706196</v>
+        <v>462.5539426869462</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>697.5226553596103</v>
+        <v>207.3791323664491</v>
       </c>
       <c r="C24" t="n">
-        <v>523.0696260784833</v>
+        <v>32.92610308532207</v>
       </c>
       <c r="D24" t="n">
-        <v>374.1352164172321</v>
+        <v>32.92610308532207</v>
       </c>
       <c r="E24" t="n">
-        <v>214.8977614117766</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>68.36320343866154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6077,7 +6077,7 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
         <v>948.4732699082806</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1394.763620525087</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>1159.611512293345</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>905.3741555651432</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X24" t="n">
-        <v>697.5226553596103</v>
+        <v>583.354768151471</v>
       </c>
       <c r="Y24" t="n">
-        <v>697.5226553596103</v>
+        <v>375.5944693865171</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
         <v>32.45932575975218</v>
@@ -6183,16 +6183,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.2992974737949</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C26" t="n">
-        <v>442.2992974737949</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D26" t="n">
-        <v>442.2992974737949</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="E26" t="n">
-        <v>442.2992974737949</v>
+        <v>847.0387034135531</v>
       </c>
       <c r="F26" t="n">
-        <v>442.2992974737949</v>
+        <v>437.1987316995103</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>795.067952743909</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>442.2992974737949</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>442.2992974737949</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>442.2992974737949</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.6967807652077</v>
+        <v>321.5470195745884</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>147.0939902934614</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>147.0939902934614</v>
       </c>
       <c r="E27" t="n">
         <v>32.45932575975218</v>
@@ -6305,25 +6305,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>157.8168858175896</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>387.7799916859387</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>708.1153112156405</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1052.635966853259</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1370.928251860929</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1465.816390610213</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1264.913381715707</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1264.913381715707</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V27" t="n">
-        <v>1029.761273483964</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W27" t="n">
-        <v>775.5239167557625</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X27" t="n">
-        <v>567.6724165502296</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y27" t="n">
-        <v>359.9121177852757</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D28" t="n">
-        <v>179.3492732576625</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="E28" t="n">
-        <v>179.3492732576625</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>64.24001469270399</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>64.24001469270399</v>
       </c>
       <c r="H28" t="n">
         <v>32.45932575975218</v>
@@ -6408,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="C29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="D29" t="n">
-        <v>503.7583553506521</v>
+        <v>1150.704946607427</v>
       </c>
       <c r="E29" t="n">
-        <v>117.9701027524079</v>
+        <v>764.9166940091825</v>
       </c>
       <c r="F29" t="n">
-        <v>117.9701027524079</v>
+        <v>355.0767222951397</v>
       </c>
       <c r="G29" t="n">
-        <v>117.9701027524079</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6469,7 +6469,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941454</v>
@@ -6490,25 +6490,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T29" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U29" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y29" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>957.7415918977861</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>783.2885626166591</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>634.3541529554078</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>475.1166979499523</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>328.5821399768373</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>157.8168858175896</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L30" t="n">
-        <v>447.6306040484151</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M30" t="n">
-        <v>847.048740652678</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.569396290296</v>
+        <v>1081.384862257351</v>
       </c>
       <c r="O30" t="n">
-        <v>1440.322810374258</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U30" t="n">
-        <v>1111.91361897131</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V30" t="n">
-        <v>876.7615107395675</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W30" t="n">
-        <v>622.5241540113659</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X30" t="n">
-        <v>414.6726538058331</v>
+        <v>1333.717227682808</v>
       </c>
       <c r="Y30" t="n">
-        <v>206.9123550408792</v>
+        <v>1125.956928917854</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
         <v>32.45932575975218</v>
@@ -6651,22 +6651,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U31" t="n">
-        <v>348.7701515881781</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V31" t="n">
-        <v>348.7701515881781</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W31" t="n">
-        <v>348.7701515881781</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X31" t="n">
-        <v>348.7701515881781</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.7701515881781</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C32" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1551.137369667166</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1551.137369667166</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1328.393450047934</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U32" t="n">
-        <v>1074.556566980188</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V32" t="n">
-        <v>743.4936796366169</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W32" t="n">
-        <v>390.7250243665027</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X32" t="n">
-        <v>390.7250243665027</v>
+        <v>89.0881844258663</v>
       </c>
       <c r="Y32" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="33">
@@ -6758,46 +6758,46 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>157.8168858175896</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L33" t="n">
-        <v>387.7799916859387</v>
+        <v>457.318862609647</v>
       </c>
       <c r="M33" t="n">
-        <v>772.7886475620825</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N33" t="n">
-        <v>1117.3093031997</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O33" t="n">
-        <v>1440.322810374259</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6812,13 +6812,13 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X33" t="n">
         <v>414.6726538058331</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6882,28 +6882,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C35" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D35" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E35" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011318</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1242.278601163649</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y35" t="n">
-        <v>852.1392691878377</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>240.1494594753201</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C36" t="n">
-        <v>65.69643019419308</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D36" t="n">
-        <v>65.69643019419308</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>650.5264002711172</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1052.210556548051</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1375.224063722609</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1557.867541335959</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1541.568727888341</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U36" t="n">
-        <v>1313.366060425819</v>
+        <v>1412.036455469531</v>
       </c>
       <c r="V36" t="n">
-        <v>1078.213952194076</v>
+        <v>1176.884347237789</v>
       </c>
       <c r="W36" t="n">
-        <v>823.9765954658749</v>
+        <v>922.6469905095871</v>
       </c>
       <c r="X36" t="n">
-        <v>616.1250952603421</v>
+        <v>714.7954903040543</v>
       </c>
       <c r="Y36" t="n">
-        <v>408.3647964953881</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E37" t="n">
-        <v>213.333508020557</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="F37" t="n">
-        <v>66.44356052264661</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7119,28 +7119,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>834.8212426942227</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C38" t="n">
-        <v>580.3810541751592</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1153555684087</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="E38" t="n">
-        <v>222.1153555684087</v>
+        <v>847.0387034135533</v>
       </c>
       <c r="F38" t="n">
-        <v>222.1153555684087</v>
+        <v>437.1987316995105</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
@@ -7183,7 +7183,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X38" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y38" t="n">
-        <v>834.8212426942227</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>596.9571915294507</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>422.5041622483237</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D39" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>157.8168858175896</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>387.7799916859387</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>708.1153112156405</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.635966853259</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O39" t="n">
-        <v>1370.928251860929</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483253</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V39" t="n">
-        <v>1227.261385483253</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W39" t="n">
-        <v>973.0240287550516</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X39" t="n">
-        <v>765.1725285495188</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y39" t="n">
-        <v>765.1725285495188</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975218</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822123</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822123</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822123</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822123</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C41" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D41" t="n">
-        <v>852.1392691878377</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1437.431309755393</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="X41" t="n">
-        <v>1622.966287987609</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="Y41" t="n">
-        <v>1232.826956011797</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>121.3571126583155</v>
+        <v>469.0652289160757</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>294.6121996349486</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>145.6777899736974</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>145.6777899736974</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7490,19 +7490,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
         <v>1271.486777082839</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570039</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288023</v>
+        <v>884.6770278865624</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232695</v>
+        <v>676.8255276810296</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.3571126583155</v>
+        <v>469.0652289160757</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U43" t="n">
         <v>32.45932575975218</v>
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.0875500720392</v>
+        <v>1000.917844222863</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7687,13 +7687,13 @@
         <v>1508.970645214177</v>
       </c>
       <c r="W44" t="n">
-        <v>1508.970645214177</v>
+        <v>1156.201989944063</v>
       </c>
       <c r="X44" t="n">
-        <v>1508.970645214177</v>
+        <v>1156.201989944063</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.687390136161</v>
+        <v>1156.201989944063</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>328.4043094450356</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C45" t="n">
-        <v>328.4043094450356</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D45" t="n">
-        <v>328.4043094450356</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E45" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7730,49 +7730,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>91.88297124942886</v>
+        <v>228.981666141313</v>
       </c>
       <c r="L45" t="n">
-        <v>389.614726231092</v>
+        <v>526.7134211229762</v>
       </c>
       <c r="M45" t="n">
-        <v>789.032862835355</v>
+        <v>847.048740652678</v>
       </c>
       <c r="N45" t="n">
-        <v>1190.717019112288</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.730526286846</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1607.93888593684</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1440.436650895006</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093102</v>
+        <v>1440.436650895006</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1212.233983432484</v>
       </c>
       <c r="V45" t="n">
-        <v>958.708503398838</v>
+        <v>977.0818752007415</v>
       </c>
       <c r="W45" t="n">
-        <v>704.4711466706365</v>
+        <v>722.8445184725399</v>
       </c>
       <c r="X45" t="n">
-        <v>496.6196464651036</v>
+        <v>722.8445184725399</v>
       </c>
       <c r="Y45" t="n">
-        <v>496.6196464651036</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975218</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>165.270343062093</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>215.1275417125699</v>
+        <v>174.8839021293036</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>164.4140421034857</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>145.8446138423421</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>145.8446138423421</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>154.3480269207542</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>323.377224364657</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>205.7380838351628</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210686</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>174.8839021293036</v>
       </c>
       <c r="O42" t="n">
-        <v>180.1562595611509</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>117.917222536309</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>181.8965854058268</v>
+        <v>145.8693345230518</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.7856318598291</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>28.12954726381375</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.81882066262618</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23469,7 +23469,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>216.5454902098365</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>259.2122926605053</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>168.9619933677987</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>12.49277641978321</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>192.3355253113203</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23703,10 +23703,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>120.7272614763988</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>119.9015159566402</v>
       </c>
     </row>
     <row r="17">
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>123.7876341692302</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>135.5774326700793</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>199.5167306764791</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>108.3071674310104</v>
       </c>
       <c r="J19" t="n">
         <v>74.67247646141476</v>
@@ -23943,13 +23943,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>153.4545059283734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>44.24592367051537</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24025,19 +24025,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>301.6225792142671</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>63.01816494425223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>17.13010058469388</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>136.1631871670945</v>
       </c>
       <c r="H22" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24174,13 +24174,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>66.72592374140289</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>262.3296865784815</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>123.9743297613965</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.1829709030868</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>101.4834106063012</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24335,10 +24335,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24423,13 +24423,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="X25" t="n">
-        <v>46.64421495084042</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>14.02149225017337</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>288.3965014193243</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>44.15676256702886</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,13 +24572,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>10.24881428779398</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>128.4143359601729</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24648,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24657,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>271.6353185327184</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>95.32228156050024</v>
       </c>
       <c r="H29" t="n">
-        <v>248.7846464929915</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>31.5993086532566</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>84.69968995873808</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24891,10 +24891,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>81.14884278648267</v>
       </c>
       <c r="U31" t="n">
-        <v>273.9529269430712</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>41.74505720845832</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>330.1753685766006</v>
       </c>
     </row>
     <row r="33">
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>84.69968995873785</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>84.69968995873796</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25122,16 +25122,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>59.32005692394502</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>273.9529269430712</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25204,10 +25204,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>39.22858430196635</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>351.7729304615887</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>124.7403470653045</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.994085400561</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0822771319449</v>
+        <v>7.636327599302035</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25359,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>113.3771051371346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>14.0214922501732</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.56051224694818</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25520,25 +25520,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>85.40566091718938</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>117.0519906380964</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25599,7 +25599,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25608,7 +25608,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>146.0486391109155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.853031707760522</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25678,10 +25678,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>11.91328538475275</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,22 +25709,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>84.69968995873801</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>142.1735552341895</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>66.72592374140289</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>229.0025373994925</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>94.89751612881747</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>118.9193814129656</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>65.70645646801414</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>49.93233562275772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>107.2391720194988</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448620.6838356739</v>
+        <v>448620.6838356738</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.683835674</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448620.6838356737</v>
+        <v>448620.6838356736</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448620.6838356738</v>
+        <v>448620.683835674</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448620.6838356739</v>
+        <v>448620.683835674</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448620.683835674</v>
+        <v>448620.6838356739</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448620.6838356737</v>
+        <v>448620.6838356739</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>299080.4558904491</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="F2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="G2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="I2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="K2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>299080.4558904494</v>
       </c>
-      <c r="J2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="O2" t="n">
         <v>299080.4558904493</v>
-      </c>
-      <c r="M2" t="n">
-        <v>299080.4558904491</v>
-      </c>
-      <c r="N2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="O2" t="n">
-        <v>299080.4558904492</v>
       </c>
       <c r="P2" t="n">
         <v>299080.4558904492</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244798</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26499,13 +26499,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="M5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="M5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166553.4784775255</v>
+        <v>166553.4784775252</v>
       </c>
       <c r="C6" t="n">
-        <v>247322.910009073</v>
+        <v>247322.9100090732</v>
       </c>
       <c r="D6" t="n">
-        <v>247322.9100090733</v>
+        <v>247322.9100090734</v>
       </c>
       <c r="E6" t="n">
-        <v>94125.37475501951</v>
+        <v>102985.5142090588</v>
       </c>
       <c r="F6" t="n">
-        <v>261065.5448802663</v>
+        <v>269925.6843343056</v>
       </c>
       <c r="G6" t="n">
-        <v>261065.5448802666</v>
+        <v>269925.6843343054</v>
       </c>
       <c r="H6" t="n">
-        <v>261065.5448802664</v>
+        <v>269925.6843343056</v>
       </c>
       <c r="I6" t="n">
-        <v>261065.5448802666</v>
+        <v>269925.6843343057</v>
       </c>
       <c r="J6" t="n">
-        <v>198005.6022811602</v>
+        <v>206865.7417351995</v>
       </c>
       <c r="K6" t="n">
-        <v>261065.5448802666</v>
+        <v>269925.6843343054</v>
       </c>
       <c r="L6" t="n">
-        <v>261065.5448802664</v>
+        <v>269925.6843343056</v>
       </c>
       <c r="M6" t="n">
-        <v>220014.8470178184</v>
+        <v>228874.9864718577</v>
       </c>
       <c r="N6" t="n">
-        <v>261065.5448802664</v>
+        <v>269925.6843343058</v>
       </c>
       <c r="O6" t="n">
-        <v>261065.5448802664</v>
+        <v>269925.6843343056</v>
       </c>
       <c r="P6" t="n">
-        <v>261065.5448802664</v>
+        <v>269925.6843343054</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192436</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,7 +27396,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27435,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>165.7716173848398</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>186.2617493458957</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27511,16 +27511,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>173.4056038872102</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>45.00934422710935</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>281.0308142361831</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>70.94827737972352</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>136.4308634328779</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>126.5814812455281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>333.8979464799388</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>305.8471464371412</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>197.7981193194528</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>139.7971603287365</v>
       </c>
     </row>
     <row r="10">
@@ -28028,13 +28028,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N12" t="n">
         <v>57.74090973668206</v>
       </c>
       <c r="O12" t="n">
-        <v>69.1357577680219</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q13" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409522</v>
@@ -32098,7 +32098,7 @@
         <v>60.202294536017</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436761</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438473</v>
@@ -32250,25 +32250,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R17" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T17" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427703</v>
@@ -32317,13 +32317,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>29.9976441780552</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32341,7 +32341,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
@@ -32420,7 +32420,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32557,16 +32557,16 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>29.22569039103684</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
         <v>60.20229453601701</v>
@@ -32800,7 +32800,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N24" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>75.01019504100589</v>
@@ -33025,28 +33025,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O27" t="n">
-        <v>70.24128376132143</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436761</v>
@@ -33268,22 +33268,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>60.45516400250136</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>41.20199547435993</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436761</v>
@@ -33505,22 +33505,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>41.20199547435999</v>
       </c>
       <c r="M33" t="n">
-        <v>65.32660237014341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436761</v>
@@ -33736,28 +33736,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>68.45318092253945</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O36" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436761</v>
@@ -33973,28 +33973,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O39" t="n">
-        <v>70.24128376132143</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436761</v>
@@ -34210,7 +34210,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>50.90881248409524</v>
@@ -34222,7 +34222,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100589</v>
@@ -34374,7 +34374,7 @@
         <v>74.95269614645902</v>
       </c>
       <c r="L44" t="n">
-        <v>92.98544734044646</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M44" t="n">
         <v>103.4642265438473</v>
@@ -34450,22 +34450,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409524</v>
+        <v>42.8443282016481</v>
       </c>
       <c r="L45" t="n">
         <v>68.45318092253945</v>
       </c>
       <c r="M45" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>40.24363958326609</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,7 +35263,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35421,7 +35421,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N11" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O11" t="n">
         <v>249.9811662707763</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>320.401832600307</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.28856897607153</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M13" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>83.7858296292366</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726432</v>
@@ -35895,7 +35895,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>156.6214422162748</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>21.8177976590412</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O19" t="n">
         <v>61.94411832576036</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O21" t="n">
-        <v>280.4917652233219</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>321.5073585936065</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>292.7411295260864</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>292.468070306645</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>273.487960997945</v>
       </c>
       <c r="M33" t="n">
-        <v>388.897632198125</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>192.0355122813237</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>65.75630974914131</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>12.2139929987362</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>321.5073585936065</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,10 +37870,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O42" t="n">
-        <v>112.5702101577123</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.6906557616239</v>
@@ -38022,7 +38022,7 @@
         <v>179.0082576726432</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209097</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
         <v>322.6315268094071</v>
@@ -38098,25 +38098,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>30.98459604604529</v>
+        <v>169.4681262398677</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
